--- a/data_year/zb/建筑业/按登记注册类型分建筑业企业资产.xlsx
+++ b/data_year/zb/建筑业/按登记注册类型分建筑业企业资产.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,590 +478,342 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14355.8293</v>
+        <v>74275.5868</v>
       </c>
       <c r="C2" t="n">
-        <v>7034.1056</v>
+        <v>15832.311</v>
       </c>
       <c r="D2" t="n">
-        <v>79.9054</v>
+        <v>460.6205</v>
       </c>
       <c r="E2" t="n">
-        <v>4.4783</v>
+        <v>201.6203</v>
       </c>
       <c r="F2" t="n">
-        <v>14578.36857</v>
+        <v>75221.766</v>
       </c>
       <c r="G2" t="n">
-        <v>142.6338</v>
+        <v>485.5586</v>
       </c>
       <c r="H2" t="n">
-        <v>17.4697</v>
+        <v>79.1661</v>
       </c>
       <c r="I2" t="n">
-        <v>3504.0183</v>
+        <v>2428.1783</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16728.9507</v>
+        <v>92483.54508</v>
       </c>
       <c r="C3" t="n">
-        <v>7299.2735</v>
+        <v>19153.60884</v>
       </c>
       <c r="D3" t="n">
-        <v>83.7174</v>
+        <v>733.2292</v>
       </c>
       <c r="E3" t="n">
-        <v>3.5239</v>
+        <v>287.71101</v>
       </c>
       <c r="F3" t="n">
-        <v>16967.61427</v>
+        <v>93859.85583</v>
       </c>
       <c r="G3" t="n">
-        <v>154.9461</v>
+        <v>643.08155</v>
       </c>
       <c r="H3" t="n">
-        <v>19.9136</v>
+        <v>175.2387</v>
       </c>
       <c r="I3" t="n">
-        <v>3080.0485</v>
+        <v>2766.06949</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20113.6379</v>
+        <v>110414.35353</v>
       </c>
       <c r="C4" t="n">
-        <v>7606.1185</v>
+        <v>22437.68434</v>
       </c>
       <c r="D4" t="n">
-        <v>101.6965</v>
+        <v>590.89549</v>
       </c>
       <c r="E4" t="n">
-        <v>4.9017</v>
+        <v>345.65362</v>
       </c>
       <c r="F4" t="n">
-        <v>20390.1075</v>
+        <v>111692.15194</v>
       </c>
       <c r="G4" t="n">
-        <v>174.7731</v>
+        <v>686.90292</v>
       </c>
       <c r="H4" t="n">
-        <v>20.8185</v>
+        <v>116.37569</v>
       </c>
       <c r="I4" t="n">
-        <v>3300.4503</v>
+        <v>3073.44726</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23236.0971</v>
+        <v>146560.16434</v>
       </c>
       <c r="C5" t="n">
-        <v>7845.6638</v>
+        <v>24630.99029</v>
       </c>
       <c r="D5" t="n">
-        <v>139.4828</v>
+        <v>825.91809</v>
       </c>
       <c r="E5" t="n">
-        <v>5.2043</v>
+        <v>512.3768</v>
       </c>
       <c r="F5" t="n">
-        <v>23541.9044</v>
+        <v>148372.78725</v>
       </c>
       <c r="G5" t="n">
-        <v>166.3245</v>
+        <v>986.70482</v>
       </c>
       <c r="H5" t="n">
-        <v>8.904999999999999</v>
+        <v>197.96109</v>
       </c>
       <c r="I5" t="n">
-        <v>3041.2613</v>
+        <v>2603.67156</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31019.24886</v>
+        <v>162295.94122</v>
       </c>
       <c r="C6" t="n">
-        <v>9402.44556</v>
+        <v>27646.24746</v>
       </c>
       <c r="D6" t="n">
-        <v>265.60257</v>
+        <v>792.4169000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>54.0475</v>
+        <v>511.92812</v>
       </c>
       <c r="F6" t="n">
-        <v>31485.73082</v>
+        <v>164226.33632</v>
       </c>
       <c r="G6" t="n">
-        <v>200.87939</v>
+        <v>1137.9782</v>
       </c>
       <c r="H6" t="n">
-        <v>23.57272</v>
+        <v>328.68365</v>
       </c>
       <c r="I6" t="n">
-        <v>2456.19215</v>
+        <v>2593.54451</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35472.79838</v>
+        <v>180384.55879</v>
       </c>
       <c r="C7" t="n">
-        <v>9607.282289999999</v>
+        <v>31197.09379</v>
       </c>
       <c r="D7" t="n">
-        <v>287.71889</v>
+        <v>905.78552</v>
       </c>
       <c r="E7" t="n">
-        <v>105.32132</v>
+        <v>625.6709</v>
       </c>
       <c r="F7" t="n">
-        <v>36008.7811</v>
+        <v>182482.06575</v>
       </c>
       <c r="G7" t="n">
-        <v>248.26383</v>
+        <v>1191.72144</v>
       </c>
       <c r="H7" t="n">
-        <v>33.52965</v>
+        <v>356.25305</v>
       </c>
       <c r="I7" t="n">
-        <v>2330.82066</v>
+        <v>2685.30054</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42394.72412</v>
+        <v>202085.56547</v>
       </c>
       <c r="C8" t="n">
-        <v>11344.00064</v>
+        <v>35858.1186</v>
       </c>
       <c r="D8" t="n">
-        <v>370.15852</v>
+        <v>1077.12007</v>
       </c>
       <c r="E8" t="n">
-        <v>124.25209</v>
+        <v>688.41706</v>
       </c>
       <c r="F8" t="n">
-        <v>43029.27362</v>
+        <v>204664.12805</v>
       </c>
       <c r="G8" t="n">
-        <v>264.39098</v>
+        <v>1501.44251</v>
       </c>
       <c r="H8" t="n">
-        <v>56.51577</v>
+        <v>390.98587</v>
       </c>
       <c r="I8" t="n">
-        <v>2335.05132</v>
+        <v>2546.79892</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50979.14104</v>
+        <v>231442.64287</v>
       </c>
       <c r="C9" t="n">
-        <v>12477.59509</v>
+        <v>39224.47377</v>
       </c>
       <c r="D9" t="n">
-        <v>408.13809</v>
+        <v>1200.82338</v>
       </c>
       <c r="E9" t="n">
-        <v>169.14481</v>
+        <v>824.26915</v>
       </c>
       <c r="F9" t="n">
-        <v>51711.92963</v>
+        <v>234002.45864</v>
       </c>
       <c r="G9" t="n">
-        <v>324.6505</v>
+        <v>1358.99239</v>
       </c>
       <c r="H9" t="n">
-        <v>72.99581000000001</v>
+        <v>394.83333</v>
       </c>
       <c r="I9" t="n">
-        <v>2284.91774</v>
+        <v>2230.94434</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61347.77575</v>
+        <v>253868.94361</v>
       </c>
       <c r="C10" t="n">
-        <v>14302.9064</v>
+        <v>45131.18923</v>
       </c>
       <c r="D10" t="n">
-        <v>428.20046</v>
+        <v>1395.13393</v>
       </c>
       <c r="E10" t="n">
-        <v>157.12628</v>
+        <v>1041.60207</v>
       </c>
       <c r="F10" t="n">
-        <v>62164.38775</v>
+        <v>256629.50334</v>
       </c>
       <c r="G10" t="n">
-        <v>388.41154</v>
+        <v>1365.4258</v>
       </c>
       <c r="H10" t="n">
-        <v>76.38175</v>
+        <v>385.498</v>
       </c>
       <c r="I10" t="n">
-        <v>2310.8149</v>
+        <v>2149.61819</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74275.5868</v>
+        <v>278639.10153</v>
       </c>
       <c r="C11" t="n">
-        <v>15832.311</v>
+        <v>52477.9142</v>
       </c>
       <c r="D11" t="n">
-        <v>460.6205</v>
+        <v>1997.07877</v>
       </c>
       <c r="E11" t="n">
-        <v>201.6203</v>
+        <v>1075.6262</v>
       </c>
       <c r="F11" t="n">
-        <v>75221.766</v>
+        <v>283032.55357</v>
       </c>
       <c r="G11" t="n">
-        <v>485.5586</v>
+        <v>2396.37327</v>
       </c>
       <c r="H11" t="n">
-        <v>79.1661</v>
+        <v>373.69023</v>
       </c>
       <c r="I11" t="n">
-        <v>2428.1783</v>
+        <v>2254.10194</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>92483.54508</v>
+        <v>307118.52624</v>
       </c>
       <c r="C12" t="n">
-        <v>19153.60884</v>
+        <v>56179.74883</v>
       </c>
       <c r="D12" t="n">
-        <v>733.2292</v>
+        <v>1908.41788</v>
       </c>
       <c r="E12" t="n">
-        <v>287.71101</v>
+        <v>1161.42693</v>
       </c>
       <c r="F12" t="n">
-        <v>93859.85583</v>
+        <v>311295.76322</v>
       </c>
       <c r="G12" t="n">
-        <v>643.08155</v>
+        <v>2268.8191</v>
       </c>
       <c r="H12" t="n">
-        <v>175.2387</v>
+        <v>398.73946</v>
       </c>
       <c r="I12" t="n">
-        <v>2766.06949</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>110414.35353</v>
-      </c>
-      <c r="C13" t="n">
-        <v>22437.68434</v>
-      </c>
-      <c r="D13" t="n">
-        <v>590.89549</v>
-      </c>
-      <c r="E13" t="n">
-        <v>345.65362</v>
-      </c>
-      <c r="F13" t="n">
-        <v>111692.15194</v>
-      </c>
-      <c r="G13" t="n">
-        <v>686.90292</v>
-      </c>
-      <c r="H13" t="n">
-        <v>116.37569</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3073.44726</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>146560.16434</v>
-      </c>
-      <c r="C14" t="n">
-        <v>24630.99029</v>
-      </c>
-      <c r="D14" t="n">
-        <v>825.91809</v>
-      </c>
-      <c r="E14" t="n">
-        <v>512.3768</v>
-      </c>
-      <c r="F14" t="n">
-        <v>148372.78725</v>
-      </c>
-      <c r="G14" t="n">
-        <v>986.70482</v>
-      </c>
-      <c r="H14" t="n">
-        <v>197.96109</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2603.67156</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>162295.94122</v>
-      </c>
-      <c r="C15" t="n">
-        <v>27646.24746</v>
-      </c>
-      <c r="D15" t="n">
-        <v>792.4169000000001</v>
-      </c>
-      <c r="E15" t="n">
-        <v>511.92812</v>
-      </c>
-      <c r="F15" t="n">
-        <v>164226.33632</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1137.9782</v>
-      </c>
-      <c r="H15" t="n">
-        <v>328.68365</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2593.54451</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>180384.55879</v>
-      </c>
-      <c r="C16" t="n">
-        <v>31197.09379</v>
-      </c>
-      <c r="D16" t="n">
-        <v>905.78552</v>
-      </c>
-      <c r="E16" t="n">
-        <v>625.6709</v>
-      </c>
-      <c r="F16" t="n">
-        <v>182482.06575</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1191.72144</v>
-      </c>
-      <c r="H16" t="n">
-        <v>356.25305</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2685.30054</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>202085.56547</v>
-      </c>
-      <c r="C17" t="n">
-        <v>35858.1186</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1077.12007</v>
-      </c>
-      <c r="E17" t="n">
-        <v>688.41706</v>
-      </c>
-      <c r="F17" t="n">
-        <v>204664.12805</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1501.44251</v>
-      </c>
-      <c r="H17" t="n">
-        <v>390.98587</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2546.79892</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>231442.64287</v>
-      </c>
-      <c r="C18" t="n">
-        <v>39224.47377</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1200.82338</v>
-      </c>
-      <c r="E18" t="n">
-        <v>824.26915</v>
-      </c>
-      <c r="F18" t="n">
-        <v>234002.45864</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1358.99239</v>
-      </c>
-      <c r="H18" t="n">
-        <v>394.83333</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2230.94434</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>253868.94361</v>
-      </c>
-      <c r="C19" t="n">
-        <v>45131.18923</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1395.13393</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1041.60207</v>
-      </c>
-      <c r="F19" t="n">
-        <v>256629.50334</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1365.4258</v>
-      </c>
-      <c r="H19" t="n">
-        <v>385.498</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2149.61819</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>278639.10153</v>
-      </c>
-      <c r="C20" t="n">
-        <v>52477.9142</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1997.07877</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1075.6262</v>
-      </c>
-      <c r="F20" t="n">
-        <v>283032.55357</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2396.37327</v>
-      </c>
-      <c r="H20" t="n">
-        <v>373.69023</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2254.10194</v>
+        <v>2056.29967</v>
       </c>
     </row>
   </sheetData>
